--- a/Code/Results/Cases/Case_5_90/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_90/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000564742446281</v>
+        <v>1.046534378652948</v>
       </c>
       <c r="D2">
-        <v>1.020890003377767</v>
+        <v>1.049846645543807</v>
       </c>
       <c r="E2">
-        <v>1.006439298517437</v>
+        <v>1.044084260354381</v>
       </c>
       <c r="F2">
-        <v>1.025175696794119</v>
+        <v>1.05901497523259</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043907816708974</v>
+        <v>1.039146763037203</v>
       </c>
       <c r="J2">
-        <v>1.022728575272312</v>
+        <v>1.051588260669239</v>
       </c>
       <c r="K2">
-        <v>1.032065780990766</v>
+        <v>1.052602567067423</v>
       </c>
       <c r="L2">
-        <v>1.017809646752609</v>
+        <v>1.046856306123832</v>
       </c>
       <c r="M2">
-        <v>1.036295091674581</v>
+        <v>1.06174563383294</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007713729496066</v>
+        <v>1.047979743052009</v>
       </c>
       <c r="D3">
-        <v>1.026185191858896</v>
+        <v>1.050927493606549</v>
       </c>
       <c r="E3">
-        <v>1.012376995774057</v>
+        <v>1.045330155527064</v>
       </c>
       <c r="F3">
-        <v>1.031078988216468</v>
+        <v>1.060243561956825</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045842493919962</v>
+        <v>1.039455476554014</v>
       </c>
       <c r="J3">
-        <v>1.027996296689514</v>
+        <v>1.052679290317649</v>
       </c>
       <c r="K3">
-        <v>1.036493642005104</v>
+        <v>1.053495050327574</v>
       </c>
       <c r="L3">
-        <v>1.022853922609444</v>
+        <v>1.047912232682433</v>
       </c>
       <c r="M3">
-        <v>1.041329070441917</v>
+        <v>1.062787317718793</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.012209389702775</v>
+        <v>1.048914098613176</v>
       </c>
       <c r="D4">
-        <v>1.029517974638693</v>
+        <v>1.051625910123484</v>
       </c>
       <c r="E4">
-        <v>1.016117189968162</v>
+        <v>1.046135779253045</v>
       </c>
       <c r="F4">
-        <v>1.034797080707908</v>
+        <v>1.061037832366607</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047047257504931</v>
+        <v>1.039653464321051</v>
       </c>
       <c r="J4">
-        <v>1.031305851782891</v>
+        <v>1.053383952083915</v>
       </c>
       <c r="K4">
-        <v>1.03927273299607</v>
+        <v>1.054070990328696</v>
       </c>
       <c r="L4">
-        <v>1.026024909817316</v>
+        <v>1.048594378973953</v>
       </c>
       <c r="M4">
-        <v>1.044492919539605</v>
+        <v>1.063460085431428</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014069850516844</v>
+        <v>1.049306693708842</v>
       </c>
       <c r="D5">
-        <v>1.030897771266249</v>
+        <v>1.051919296636344</v>
       </c>
       <c r="E5">
-        <v>1.017666422869992</v>
+        <v>1.046474334767035</v>
       </c>
       <c r="F5">
-        <v>1.036337026650091</v>
+        <v>1.061371577847241</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047542917021781</v>
+        <v>1.039736275678081</v>
       </c>
       <c r="J5">
-        <v>1.032674653938678</v>
+        <v>1.053679882693965</v>
       </c>
       <c r="K5">
-        <v>1.040421436796034</v>
+        <v>1.054312745855686</v>
       </c>
       <c r="L5">
-        <v>1.027336830027511</v>
+        <v>1.048880891362997</v>
       </c>
       <c r="M5">
-        <v>1.045801701057587</v>
+        <v>1.063742615850366</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014380545122802</v>
+        <v>1.049372600117029</v>
       </c>
       <c r="D6">
-        <v>1.03112822607703</v>
+        <v>1.051968544254861</v>
       </c>
       <c r="E6">
-        <v>1.01792522321011</v>
+        <v>1.046531172292673</v>
       </c>
       <c r="F6">
-        <v>1.036594267011505</v>
+        <v>1.061427605562036</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047625518295426</v>
+        <v>1.039750155315725</v>
       </c>
       <c r="J6">
-        <v>1.032903192712596</v>
+        <v>1.053729552723957</v>
       </c>
       <c r="K6">
-        <v>1.040613185162</v>
+        <v>1.054353316081253</v>
       </c>
       <c r="L6">
-        <v>1.027555896643813</v>
+        <v>1.048928982797671</v>
       </c>
       <c r="M6">
-        <v>1.046020231936075</v>
+        <v>1.063790036386843</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.012234363147222</v>
+        <v>1.048919345298427</v>
       </c>
       <c r="D7">
-        <v>1.029536493879603</v>
+        <v>1.051629831259656</v>
       </c>
       <c r="E7">
-        <v>1.016137980256054</v>
+        <v>1.0461403035493</v>
       </c>
       <c r="F7">
-        <v>1.034817746927275</v>
+        <v>1.061042292537146</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047053922484968</v>
+        <v>1.039654572509941</v>
       </c>
       <c r="J7">
-        <v>1.031324228851008</v>
+        <v>1.05338790753345</v>
       </c>
       <c r="K7">
-        <v>1.039288157921242</v>
+        <v>1.054074222126715</v>
       </c>
       <c r="L7">
-        <v>1.026042521521322</v>
+        <v>1.048598208391276</v>
       </c>
       <c r="M7">
-        <v>1.044510489875736</v>
+        <v>1.063463861795918</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.003008778452057</v>
+        <v>1.047023034317174</v>
       </c>
       <c r="D8">
-        <v>1.022699594001667</v>
+        <v>1.050212124775588</v>
       </c>
       <c r="E8">
-        <v>1.008467851661849</v>
+        <v>1.044505433456517</v>
       </c>
       <c r="F8">
-        <v>1.027192567400511</v>
+        <v>1.059430330468118</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044571686940704</v>
+        <v>1.0392514615179</v>
       </c>
       <c r="J8">
-        <v>1.024530061001125</v>
+        <v>1.051957252233892</v>
       </c>
       <c r="K8">
-        <v>1.033580618966703</v>
+        <v>1.052904509991854</v>
       </c>
       <c r="L8">
-        <v>1.019534329317976</v>
+        <v>1.047213393166275</v>
       </c>
       <c r="M8">
-        <v>1.038016377403441</v>
+        <v>1.062097940997232</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9856727391586912</v>
+        <v>1.043674413369201</v>
       </c>
       <c r="D9">
-        <v>1.009881645280796</v>
+        <v>1.047706418553496</v>
       </c>
       <c r="E9">
-        <v>0.9941100806493848</v>
+        <v>1.041620168270327</v>
       </c>
       <c r="F9">
-        <v>1.012916964463028</v>
+        <v>1.056584270431713</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039814541672716</v>
+        <v>1.038527515737629</v>
       </c>
       <c r="J9">
-        <v>1.011741775943994</v>
+        <v>1.049426071465251</v>
       </c>
       <c r="K9">
-        <v>1.022816408622456</v>
+        <v>1.050831275495357</v>
       </c>
       <c r="L9">
-        <v>1.007299446012651</v>
+        <v>1.044764520677927</v>
       </c>
       <c r="M9">
-        <v>1.025803892372246</v>
+        <v>1.059681130096646</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9732612094864368</v>
+        <v>1.041436891292179</v>
       </c>
       <c r="D10">
-        <v>1.000734354267057</v>
+        <v>1.0460306896912</v>
       </c>
       <c r="E10">
-        <v>0.9838759917983082</v>
+        <v>1.039693444049454</v>
       </c>
       <c r="F10">
-        <v>1.002742435307061</v>
+        <v>1.054682922033517</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03635061478736</v>
+        <v>1.038035657956309</v>
       </c>
       <c r="J10">
-        <v>1.002577390658941</v>
+        <v>1.047731530533521</v>
       </c>
       <c r="K10">
-        <v>1.015090362367326</v>
+        <v>1.049440828488295</v>
       </c>
       <c r="L10">
-        <v>0.9985426034096274</v>
+        <v>1.043125898079315</v>
       </c>
       <c r="M10">
-        <v>1.017062350151872</v>
+        <v>1.058063070409045</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9676508796700227</v>
+        <v>1.040466729805599</v>
       </c>
       <c r="D11">
-        <v>0.996608985196708</v>
+        <v>1.045303788674874</v>
       </c>
       <c r="E11">
-        <v>0.9792625685248055</v>
+        <v>1.038858333535813</v>
       </c>
       <c r="F11">
-        <v>0.9981566925975826</v>
+        <v>1.053858623424878</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034772290218087</v>
+        <v>1.037820472467436</v>
       </c>
       <c r="J11">
-        <v>0.9984342140072684</v>
+        <v>1.046996040513565</v>
       </c>
       <c r="K11">
-        <v>1.011595135683431</v>
+        <v>1.048836740780723</v>
       </c>
       <c r="L11">
-        <v>0.9945864530320052</v>
+        <v>1.042414873016589</v>
       </c>
       <c r="M11">
-        <v>1.013113454919194</v>
+        <v>1.057360760616898</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9655282152952859</v>
+        <v>1.040106166561445</v>
       </c>
       <c r="D12">
-        <v>0.9950498039890379</v>
+        <v>1.045033586103834</v>
       </c>
       <c r="E12">
-        <v>0.9775191669071832</v>
+        <v>1.038548007328177</v>
       </c>
       <c r="F12">
-        <v>0.9964239335758138</v>
+        <v>1.053552287165508</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034173367359778</v>
+        <v>1.037740209762215</v>
       </c>
       <c r="J12">
-        <v>0.9968666880667134</v>
+        <v>1.046722580212254</v>
       </c>
       <c r="K12">
-        <v>1.010272460438078</v>
+        <v>1.048612049239862</v>
       </c>
       <c r="L12">
-        <v>0.9930901209022587</v>
+        <v>1.042150538254103</v>
       </c>
       <c r="M12">
-        <v>1.011619967570059</v>
+        <v>1.057099635072883</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9659853440766681</v>
+        <v>1.040183517855242</v>
       </c>
       <c r="D13">
-        <v>0.9953855048174682</v>
+        <v>1.045091554549124</v>
       </c>
       <c r="E13">
-        <v>0.9778945219169305</v>
+        <v>1.038614579267958</v>
       </c>
       <c r="F13">
-        <v>0.9967969880222265</v>
+        <v>1.053618004421884</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034302426686937</v>
+        <v>1.037757441489192</v>
       </c>
       <c r="J13">
-        <v>0.9972042601131282</v>
+        <v>1.046781250514203</v>
       </c>
       <c r="K13">
-        <v>1.010557315411057</v>
+        <v>1.048660260266839</v>
       </c>
       <c r="L13">
-        <v>0.99341234121427</v>
+        <v>1.042207249364953</v>
       </c>
       <c r="M13">
-        <v>1.011941569899879</v>
+        <v>1.05715565905843</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9674762302156247</v>
+        <v>1.040436929697101</v>
       </c>
       <c r="D14">
-        <v>0.9964806633819037</v>
+        <v>1.045281457732007</v>
       </c>
       <c r="E14">
-        <v>0.9791190808199167</v>
+        <v>1.038832684533996</v>
       </c>
       <c r="F14">
-        <v>0.9980140767662284</v>
+        <v>1.053833304763222</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034723046861751</v>
+        <v>1.037813844733953</v>
       </c>
       <c r="J14">
-        <v>0.9983052387626704</v>
+        <v>1.046973441665094</v>
       </c>
       <c r="K14">
-        <v>1.011486312268257</v>
+        <v>1.048818173981477</v>
       </c>
       <c r="L14">
-        <v>0.9944633266617812</v>
+        <v>1.042393027707654</v>
       </c>
       <c r="M14">
-        <v>1.01299056029051</v>
+        <v>1.05733918115276</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9683895762843816</v>
+        <v>1.040593038115611</v>
       </c>
       <c r="D15">
-        <v>0.9971518030899847</v>
+        <v>1.045398436840073</v>
       </c>
       <c r="E15">
-        <v>0.9798695493774733</v>
+        <v>1.038967049150098</v>
       </c>
       <c r="F15">
-        <v>0.9987599930206157</v>
+        <v>1.05396593772847</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034980498716517</v>
+        <v>1.03784855243187</v>
       </c>
       <c r="J15">
-        <v>0.998979729739337</v>
+        <v>1.047091821511775</v>
       </c>
       <c r="K15">
-        <v>1.012055405295981</v>
+        <v>1.048915429110353</v>
       </c>
       <c r="L15">
-        <v>0.9951072480390812</v>
+        <v>1.042507461478068</v>
       </c>
       <c r="M15">
-        <v>1.013633274112856</v>
+        <v>1.05745222107045</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9736283049489241</v>
+        <v>1.041501249751965</v>
       </c>
       <c r="D16">
-        <v>1.001004500004679</v>
+        <v>1.046078904004776</v>
       </c>
       <c r="E16">
-        <v>0.9841781344459631</v>
+        <v>1.039748849763235</v>
       </c>
       <c r="F16">
-        <v>1.003042787007902</v>
+        <v>1.054737606520047</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036453637936187</v>
+        <v>1.038049892461604</v>
       </c>
       <c r="J16">
-        <v>1.002848485294006</v>
+        <v>1.047780305464063</v>
       </c>
       <c r="K16">
-        <v>1.015319017055329</v>
+        <v>1.049480877027884</v>
       </c>
       <c r="L16">
-        <v>0.9988015195233929</v>
+        <v>1.043173054686087</v>
       </c>
       <c r="M16">
-        <v>1.017320802558696</v>
+        <v>1.058109644665168</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9768490357810996</v>
+        <v>1.042070594163166</v>
       </c>
       <c r="D17">
-        <v>1.003375728717422</v>
+        <v>1.04650539242074</v>
       </c>
       <c r="E17">
-        <v>0.9868304464253962</v>
+        <v>1.040239028017601</v>
       </c>
       <c r="F17">
-        <v>1.005679477724593</v>
+        <v>1.05522138249037</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037356114090832</v>
+        <v>1.038175595566847</v>
       </c>
       <c r="J17">
-        <v>1.005226890861911</v>
+        <v>1.04821170336474</v>
       </c>
       <c r="K17">
-        <v>1.017324826943437</v>
+        <v>1.049835025467019</v>
       </c>
       <c r="L17">
-        <v>1.001073394260019</v>
+        <v>1.043590161501385</v>
       </c>
       <c r="M17">
-        <v>1.01958865258606</v>
+        <v>1.058521576624886</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9787050991589528</v>
+        <v>1.042402558190089</v>
       </c>
       <c r="D18">
-        <v>1.00474310708951</v>
+        <v>1.046754030798145</v>
       </c>
       <c r="E18">
-        <v>0.9883601139751165</v>
+        <v>1.040524861312912</v>
       </c>
       <c r="F18">
-        <v>1.007200210324572</v>
+        <v>1.055503464436186</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03787501145777</v>
+        <v>1.038248703142956</v>
       </c>
       <c r="J18">
-        <v>1.006597463858528</v>
+        <v>1.048463162647868</v>
       </c>
       <c r="K18">
-        <v>1.018480467519596</v>
+        <v>1.050041400098525</v>
       </c>
       <c r="L18">
-        <v>1.002382838088066</v>
+        <v>1.043833309324555</v>
       </c>
       <c r="M18">
-        <v>1.020895805489835</v>
+        <v>1.058761687823444</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9793342394770099</v>
+        <v>1.042515728358449</v>
       </c>
       <c r="D19">
-        <v>1.005206741736817</v>
+        <v>1.046838788959134</v>
       </c>
       <c r="E19">
-        <v>0.9888788119724548</v>
+        <v>1.04062230976046</v>
       </c>
       <c r="F19">
-        <v>1.007715889558611</v>
+        <v>1.055599630874961</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038050694689993</v>
+        <v>1.038273594868518</v>
       </c>
       <c r="J19">
-        <v>1.007062024293854</v>
+        <v>1.048548875443986</v>
       </c>
       <c r="K19">
-        <v>1.018872136781138</v>
+        <v>1.050111735694027</v>
       </c>
       <c r="L19">
-        <v>1.002826722208698</v>
+        <v>1.043916192237944</v>
       </c>
       <c r="M19">
-        <v>1.021338916528728</v>
+        <v>1.058843532226527</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9765058350473205</v>
+        <v>1.042009521868226</v>
       </c>
       <c r="D20">
-        <v>1.003122958718282</v>
+        <v>1.046459647218414</v>
       </c>
       <c r="E20">
-        <v>0.9865476928792041</v>
+        <v>1.04018644477659</v>
       </c>
       <c r="F20">
-        <v>1.005398381401428</v>
+        <v>1.055169487910162</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03726006890708</v>
+        <v>1.038162130847615</v>
       </c>
       <c r="J20">
-        <v>1.004973454539978</v>
+        <v>1.048165435845011</v>
       </c>
       <c r="K20">
-        <v>1.017111116043149</v>
+        <v>1.049797048801363</v>
       </c>
       <c r="L20">
-        <v>1.00083128243871</v>
+        <v>1.043545424765348</v>
       </c>
       <c r="M20">
-        <v>1.019346966349822</v>
+        <v>1.058477396984073</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9670382991302562</v>
+        <v>1.04036231185887</v>
       </c>
       <c r="D21">
-        <v>0.9961589255605843</v>
+        <v>1.045225541507779</v>
       </c>
       <c r="E21">
-        <v>0.9787593215600086</v>
+        <v>1.03876846156886</v>
       </c>
       <c r="F21">
-        <v>0.997656506645653</v>
+        <v>1.053769908495341</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034599541873622</v>
+        <v>1.037797244595428</v>
       </c>
       <c r="J21">
-        <v>0.9979818362971765</v>
+        <v>1.046916853558079</v>
       </c>
       <c r="K21">
-        <v>1.011213435514509</v>
+        <v>1.048771680818642</v>
       </c>
       <c r="L21">
-        <v>0.9941545971628243</v>
+        <v>1.042338326956779</v>
       </c>
       <c r="M21">
-        <v>1.012682413660108</v>
+        <v>1.057285145581784</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9608596195313498</v>
+        <v>1.039325473021557</v>
       </c>
       <c r="D22">
-        <v>0.9916238548397777</v>
+        <v>1.044448455960253</v>
       </c>
       <c r="E22">
-        <v>0.9736887883447338</v>
+        <v>1.037876170585039</v>
       </c>
       <c r="F22">
-        <v>0.9926173424109231</v>
+        <v>1.052889038028634</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0328529813779</v>
+        <v>1.03756589737264</v>
       </c>
       <c r="J22">
-        <v>0.9934193097206708</v>
+        <v>1.046130275707091</v>
       </c>
       <c r="K22">
-        <v>1.007363091267389</v>
+        <v>1.048125216262427</v>
       </c>
       <c r="L22">
-        <v>0.9898001375491158</v>
+        <v>1.04157805300702</v>
       </c>
       <c r="M22">
-        <v>1.008336483733264</v>
+        <v>1.056534044191862</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.964157687884977</v>
+        <v>1.039875234332619</v>
       </c>
       <c r="D23">
-        <v>0.9940435931739896</v>
+        <v>1.044860514453632</v>
       </c>
       <c r="E23">
-        <v>0.9763941278936269</v>
+        <v>1.038349263509604</v>
       </c>
       <c r="F23">
-        <v>0.995305821426081</v>
+        <v>1.053356090881004</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033786183013509</v>
+        <v>1.037688722250621</v>
       </c>
       <c r="J23">
-        <v>0.9958546238529197</v>
+        <v>1.046547403513509</v>
       </c>
       <c r="K23">
-        <v>1.009418406957866</v>
+        <v>1.048468088860798</v>
       </c>
       <c r="L23">
-        <v>0.9921241473607337</v>
+        <v>1.041981215568443</v>
       </c>
       <c r="M23">
-        <v>1.010655865486137</v>
+        <v>1.056932359452956</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9766609820816196</v>
+        <v>1.042037118195877</v>
       </c>
       <c r="D24">
-        <v>1.003237223021034</v>
+        <v>1.046480317893179</v>
       </c>
       <c r="E24">
-        <v>0.9866755105690294</v>
+        <v>1.040210205125457</v>
       </c>
       <c r="F24">
-        <v>1.005525449723262</v>
+        <v>1.055192937135426</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037303490708596</v>
+        <v>1.038168215632697</v>
       </c>
       <c r="J24">
-        <v>1.005088022976877</v>
+        <v>1.048186342664471</v>
       </c>
       <c r="K24">
-        <v>1.017207726895929</v>
+        <v>1.049814209422129</v>
       </c>
       <c r="L24">
-        <v>1.000940730715019</v>
+        <v>1.043565639814495</v>
       </c>
       <c r="M24">
-        <v>1.019456222151704</v>
+        <v>1.058497360362187</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9902948061665807</v>
+        <v>1.04454098680985</v>
       </c>
       <c r="D25">
-        <v>1.013294803875377</v>
+        <v>1.048355115852485</v>
       </c>
       <c r="E25">
-        <v>0.9979309678780923</v>
+        <v>1.042366626893345</v>
       </c>
       <c r="F25">
-        <v>1.016715994159873</v>
+        <v>1.057320729181082</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041093149041155</v>
+        <v>1.03871629392121</v>
       </c>
       <c r="J25">
-        <v>1.015153262085327</v>
+        <v>1.050081673801865</v>
       </c>
       <c r="K25">
-        <v>1.025690182163329</v>
+        <v>1.051368703779197</v>
       </c>
       <c r="L25">
-        <v>1.01056148804181</v>
+        <v>1.04539866113666</v>
       </c>
       <c r="M25">
-        <v>1.029060241776433</v>
+        <v>1.060307126169891</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_90/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_90/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.046534378652948</v>
+        <v>1.000564742446281</v>
       </c>
       <c r="D2">
-        <v>1.049846645543807</v>
+        <v>1.020890003377767</v>
       </c>
       <c r="E2">
-        <v>1.044084260354381</v>
+        <v>1.006439298517436</v>
       </c>
       <c r="F2">
-        <v>1.05901497523259</v>
+        <v>1.025175696794119</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039146763037203</v>
+        <v>1.043907816708974</v>
       </c>
       <c r="J2">
-        <v>1.051588260669239</v>
+        <v>1.022728575272311</v>
       </c>
       <c r="K2">
-        <v>1.052602567067423</v>
+        <v>1.032065780990766</v>
       </c>
       <c r="L2">
-        <v>1.046856306123832</v>
+        <v>1.017809646752609</v>
       </c>
       <c r="M2">
-        <v>1.06174563383294</v>
+        <v>1.036295091674581</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.047979743052009</v>
+        <v>1.007713729496067</v>
       </c>
       <c r="D3">
-        <v>1.050927493606549</v>
+        <v>1.026185191858896</v>
       </c>
       <c r="E3">
-        <v>1.045330155527064</v>
+        <v>1.012376995774057</v>
       </c>
       <c r="F3">
-        <v>1.060243561956825</v>
+        <v>1.031078988216469</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039455476554014</v>
+        <v>1.045842493919962</v>
       </c>
       <c r="J3">
-        <v>1.052679290317649</v>
+        <v>1.027996296689514</v>
       </c>
       <c r="K3">
-        <v>1.053495050327574</v>
+        <v>1.036493642005104</v>
       </c>
       <c r="L3">
-        <v>1.047912232682433</v>
+        <v>1.022853922609444</v>
       </c>
       <c r="M3">
-        <v>1.062787317718793</v>
+        <v>1.041329070441917</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.048914098613176</v>
+        <v>1.012209389702775</v>
       </c>
       <c r="D4">
-        <v>1.051625910123484</v>
+        <v>1.029517974638694</v>
       </c>
       <c r="E4">
-        <v>1.046135779253045</v>
+        <v>1.016117189968162</v>
       </c>
       <c r="F4">
-        <v>1.061037832366607</v>
+        <v>1.034797080707909</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039653464321051</v>
+        <v>1.047047257504931</v>
       </c>
       <c r="J4">
-        <v>1.053383952083915</v>
+        <v>1.031305851782891</v>
       </c>
       <c r="K4">
-        <v>1.054070990328696</v>
+        <v>1.039272732996071</v>
       </c>
       <c r="L4">
-        <v>1.048594378973953</v>
+        <v>1.026024909817316</v>
       </c>
       <c r="M4">
-        <v>1.063460085431428</v>
+        <v>1.044492919539605</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.049306693708842</v>
+        <v>1.014069850516842</v>
       </c>
       <c r="D5">
-        <v>1.051919296636344</v>
+        <v>1.030897771266248</v>
       </c>
       <c r="E5">
-        <v>1.046474334767035</v>
+        <v>1.017666422869991</v>
       </c>
       <c r="F5">
-        <v>1.061371577847241</v>
+        <v>1.03633702665009</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039736275678081</v>
+        <v>1.04754291702178</v>
       </c>
       <c r="J5">
-        <v>1.053679882693965</v>
+        <v>1.032674653938676</v>
       </c>
       <c r="K5">
-        <v>1.054312745855686</v>
+        <v>1.040421436796033</v>
       </c>
       <c r="L5">
-        <v>1.048880891362997</v>
+        <v>1.027336830027509</v>
       </c>
       <c r="M5">
-        <v>1.063742615850366</v>
+        <v>1.045801701057585</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.049372600117029</v>
+        <v>1.014380545122803</v>
       </c>
       <c r="D6">
-        <v>1.051968544254861</v>
+        <v>1.03112822607703</v>
       </c>
       <c r="E6">
-        <v>1.046531172292673</v>
+        <v>1.017925223210111</v>
       </c>
       <c r="F6">
-        <v>1.061427605562036</v>
+        <v>1.036594267011505</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039750155315725</v>
+        <v>1.047625518295426</v>
       </c>
       <c r="J6">
-        <v>1.053729552723957</v>
+        <v>1.032903192712597</v>
       </c>
       <c r="K6">
-        <v>1.054353316081253</v>
+        <v>1.040613185162</v>
       </c>
       <c r="L6">
-        <v>1.048928982797671</v>
+        <v>1.027555896643814</v>
       </c>
       <c r="M6">
-        <v>1.063790036386843</v>
+        <v>1.046020231936076</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.048919345298427</v>
+        <v>1.012234363147222</v>
       </c>
       <c r="D7">
-        <v>1.051629831259656</v>
+        <v>1.029536493879603</v>
       </c>
       <c r="E7">
-        <v>1.0461403035493</v>
+        <v>1.016137980256052</v>
       </c>
       <c r="F7">
-        <v>1.061042292537146</v>
+        <v>1.034817746927274</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039654572509941</v>
+        <v>1.047053922484968</v>
       </c>
       <c r="J7">
-        <v>1.05338790753345</v>
+        <v>1.031324228851008</v>
       </c>
       <c r="K7">
-        <v>1.054074222126715</v>
+        <v>1.039288157921242</v>
       </c>
       <c r="L7">
-        <v>1.048598208391276</v>
+        <v>1.026042521521321</v>
       </c>
       <c r="M7">
-        <v>1.063463861795918</v>
+        <v>1.044510489875735</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.047023034317174</v>
+        <v>1.003008778452059</v>
       </c>
       <c r="D8">
-        <v>1.050212124775588</v>
+        <v>1.022699594001668</v>
       </c>
       <c r="E8">
-        <v>1.044505433456517</v>
+        <v>1.00846785166185</v>
       </c>
       <c r="F8">
-        <v>1.059430330468118</v>
+        <v>1.027192567400512</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0392514615179</v>
+        <v>1.044571686940704</v>
       </c>
       <c r="J8">
-        <v>1.051957252233892</v>
+        <v>1.024530061001127</v>
       </c>
       <c r="K8">
-        <v>1.052904509991854</v>
+        <v>1.033580618966704</v>
       </c>
       <c r="L8">
-        <v>1.047213393166275</v>
+        <v>1.019534329317977</v>
       </c>
       <c r="M8">
-        <v>1.062097940997232</v>
+        <v>1.038016377403442</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.043674413369201</v>
+        <v>0.9856727391586909</v>
       </c>
       <c r="D9">
-        <v>1.047706418553496</v>
+        <v>1.009881645280795</v>
       </c>
       <c r="E9">
-        <v>1.041620168270327</v>
+        <v>0.9941100806493839</v>
       </c>
       <c r="F9">
-        <v>1.056584270431713</v>
+        <v>1.012916964463027</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038527515737629</v>
+        <v>1.039814541672716</v>
       </c>
       <c r="J9">
-        <v>1.049426071465251</v>
+        <v>1.011741775943994</v>
       </c>
       <c r="K9">
-        <v>1.050831275495357</v>
+        <v>1.022816408622456</v>
       </c>
       <c r="L9">
-        <v>1.044764520677927</v>
+        <v>1.007299446012651</v>
       </c>
       <c r="M9">
-        <v>1.059681130096646</v>
+        <v>1.025803892372246</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.041436891292179</v>
+        <v>0.9732612094864375</v>
       </c>
       <c r="D10">
-        <v>1.0460306896912</v>
+        <v>1.000734354267058</v>
       </c>
       <c r="E10">
-        <v>1.039693444049454</v>
+        <v>0.9838759917983086</v>
       </c>
       <c r="F10">
-        <v>1.054682922033517</v>
+        <v>1.002742435307062</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038035657956309</v>
+        <v>1.03635061478736</v>
       </c>
       <c r="J10">
-        <v>1.047731530533521</v>
+        <v>1.002577390658942</v>
       </c>
       <c r="K10">
-        <v>1.049440828488295</v>
+        <v>1.015090362367326</v>
       </c>
       <c r="L10">
-        <v>1.043125898079315</v>
+        <v>0.998542603409628</v>
       </c>
       <c r="M10">
-        <v>1.058063070409045</v>
+        <v>1.017062350151873</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040466729805599</v>
+        <v>0.9676508796700244</v>
       </c>
       <c r="D11">
-        <v>1.045303788674874</v>
+        <v>0.9966089851967093</v>
       </c>
       <c r="E11">
-        <v>1.038858333535813</v>
+        <v>0.9792625685248074</v>
       </c>
       <c r="F11">
-        <v>1.053858623424878</v>
+        <v>0.9981566925975837</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037820472467436</v>
+        <v>1.034772290218088</v>
       </c>
       <c r="J11">
-        <v>1.046996040513565</v>
+        <v>0.9984342140072699</v>
       </c>
       <c r="K11">
-        <v>1.048836740780723</v>
+        <v>1.011595135683433</v>
       </c>
       <c r="L11">
-        <v>1.042414873016589</v>
+        <v>0.9945864530320069</v>
       </c>
       <c r="M11">
-        <v>1.057360760616898</v>
+        <v>1.013113454919196</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.040106166561445</v>
+        <v>0.9655282152952851</v>
       </c>
       <c r="D12">
-        <v>1.045033586103834</v>
+        <v>0.9950498039890372</v>
       </c>
       <c r="E12">
-        <v>1.038548007328177</v>
+        <v>0.9775191669071827</v>
       </c>
       <c r="F12">
-        <v>1.053552287165508</v>
+        <v>0.9964239335758135</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037740209762215</v>
+        <v>1.034173367359778</v>
       </c>
       <c r="J12">
-        <v>1.046722580212254</v>
+        <v>0.9968666880667127</v>
       </c>
       <c r="K12">
-        <v>1.048612049239862</v>
+        <v>1.010272460438077</v>
       </c>
       <c r="L12">
-        <v>1.042150538254103</v>
+        <v>0.9930901209022582</v>
       </c>
       <c r="M12">
-        <v>1.057099635072883</v>
+        <v>1.011619967570059</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.040183517855242</v>
+        <v>0.9659853440766693</v>
       </c>
       <c r="D13">
-        <v>1.045091554549124</v>
+        <v>0.9953855048174693</v>
       </c>
       <c r="E13">
-        <v>1.038614579267958</v>
+        <v>0.9778945219169315</v>
       </c>
       <c r="F13">
-        <v>1.053618004421884</v>
+        <v>0.9967969880222277</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037757441489192</v>
+        <v>1.034302426686938</v>
       </c>
       <c r="J13">
-        <v>1.046781250514203</v>
+        <v>0.9972042601131292</v>
       </c>
       <c r="K13">
-        <v>1.048660260266839</v>
+        <v>1.010557315411058</v>
       </c>
       <c r="L13">
-        <v>1.042207249364953</v>
+        <v>0.9934123412142711</v>
       </c>
       <c r="M13">
-        <v>1.05715565905843</v>
+        <v>1.011941569899881</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.040436929697101</v>
+        <v>0.9674762302156258</v>
       </c>
       <c r="D14">
-        <v>1.045281457732007</v>
+        <v>0.9964806633819049</v>
       </c>
       <c r="E14">
-        <v>1.038832684533996</v>
+        <v>0.9791190808199177</v>
       </c>
       <c r="F14">
-        <v>1.053833304763222</v>
+        <v>0.9980140767662297</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037813844733953</v>
+        <v>1.034723046861751</v>
       </c>
       <c r="J14">
-        <v>1.046973441665094</v>
+        <v>0.9983052387626715</v>
       </c>
       <c r="K14">
-        <v>1.048818173981477</v>
+        <v>1.011486312268258</v>
       </c>
       <c r="L14">
-        <v>1.042393027707654</v>
+        <v>0.9944633266617821</v>
       </c>
       <c r="M14">
-        <v>1.05733918115276</v>
+        <v>1.012990560290511</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.040593038115611</v>
+        <v>0.9683895762843808</v>
       </c>
       <c r="D15">
-        <v>1.045398436840073</v>
+        <v>0.9971518030899842</v>
       </c>
       <c r="E15">
-        <v>1.038967049150098</v>
+        <v>0.9798695493774725</v>
       </c>
       <c r="F15">
-        <v>1.05396593772847</v>
+        <v>0.9987599930206151</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03784855243187</v>
+        <v>1.034980498716517</v>
       </c>
       <c r="J15">
-        <v>1.047091821511775</v>
+        <v>0.9989797297393362</v>
       </c>
       <c r="K15">
-        <v>1.048915429110353</v>
+        <v>1.01205540529598</v>
       </c>
       <c r="L15">
-        <v>1.042507461478068</v>
+        <v>0.9951072480390805</v>
       </c>
       <c r="M15">
-        <v>1.05745222107045</v>
+        <v>1.013633274112855</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.041501249751965</v>
+        <v>0.9736283049489227</v>
       </c>
       <c r="D16">
-        <v>1.046078904004776</v>
+        <v>1.001004500004677</v>
       </c>
       <c r="E16">
-        <v>1.039748849763235</v>
+        <v>0.9841781344459616</v>
       </c>
       <c r="F16">
-        <v>1.054737606520047</v>
+        <v>1.0030427870079</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038049892461604</v>
+        <v>1.036453637936187</v>
       </c>
       <c r="J16">
-        <v>1.047780305464063</v>
+        <v>1.002848485294005</v>
       </c>
       <c r="K16">
-        <v>1.049480877027884</v>
+        <v>1.015319017055328</v>
       </c>
       <c r="L16">
-        <v>1.043173054686087</v>
+        <v>0.9988015195233912</v>
       </c>
       <c r="M16">
-        <v>1.058109644665168</v>
+        <v>1.017320802558695</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.042070594163166</v>
+        <v>0.9768490357811007</v>
       </c>
       <c r="D17">
-        <v>1.04650539242074</v>
+        <v>1.003375728717423</v>
       </c>
       <c r="E17">
-        <v>1.040239028017601</v>
+        <v>0.9868304464253972</v>
       </c>
       <c r="F17">
-        <v>1.05522138249037</v>
+        <v>1.005679477724593</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038175595566847</v>
+        <v>1.037356114090832</v>
       </c>
       <c r="J17">
-        <v>1.04821170336474</v>
+        <v>1.005226890861912</v>
       </c>
       <c r="K17">
-        <v>1.049835025467019</v>
+        <v>1.017324826943438</v>
       </c>
       <c r="L17">
-        <v>1.043590161501385</v>
+        <v>1.00107339426002</v>
       </c>
       <c r="M17">
-        <v>1.058521576624886</v>
+        <v>1.019588652586062</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.042402558190089</v>
+        <v>0.9787050991589514</v>
       </c>
       <c r="D18">
-        <v>1.046754030798145</v>
+        <v>1.004743107089508</v>
       </c>
       <c r="E18">
-        <v>1.040524861312912</v>
+        <v>0.988360113975115</v>
       </c>
       <c r="F18">
-        <v>1.055503464436186</v>
+        <v>1.007200210324571</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038248703142956</v>
+        <v>1.037875011457769</v>
       </c>
       <c r="J18">
-        <v>1.048463162647868</v>
+        <v>1.006597463858527</v>
       </c>
       <c r="K18">
-        <v>1.050041400098525</v>
+        <v>1.018480467519595</v>
       </c>
       <c r="L18">
-        <v>1.043833309324555</v>
+        <v>1.002382838088064</v>
       </c>
       <c r="M18">
-        <v>1.058761687823444</v>
+        <v>1.020895805489834</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.042515728358449</v>
+        <v>0.9793342394770094</v>
       </c>
       <c r="D19">
-        <v>1.046838788959134</v>
+        <v>1.005206741736817</v>
       </c>
       <c r="E19">
-        <v>1.04062230976046</v>
+        <v>0.9888788119724542</v>
       </c>
       <c r="F19">
-        <v>1.055599630874961</v>
+        <v>1.00771588955861</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038273594868518</v>
+        <v>1.038050694689992</v>
       </c>
       <c r="J19">
-        <v>1.048548875443986</v>
+        <v>1.007062024293854</v>
       </c>
       <c r="K19">
-        <v>1.050111735694027</v>
+        <v>1.018872136781137</v>
       </c>
       <c r="L19">
-        <v>1.043916192237944</v>
+        <v>1.002826722208697</v>
       </c>
       <c r="M19">
-        <v>1.058843532226527</v>
+        <v>1.021338916528727</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.042009521868226</v>
+        <v>0.976505835047319</v>
       </c>
       <c r="D20">
-        <v>1.046459647218414</v>
+        <v>1.00312295871828</v>
       </c>
       <c r="E20">
-        <v>1.04018644477659</v>
+        <v>0.9865476928792029</v>
       </c>
       <c r="F20">
-        <v>1.055169487910162</v>
+        <v>1.005398381401427</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038162130847615</v>
+        <v>1.03726006890708</v>
       </c>
       <c r="J20">
-        <v>1.048165435845011</v>
+        <v>1.004973454539976</v>
       </c>
       <c r="K20">
-        <v>1.049797048801363</v>
+        <v>1.017111116043147</v>
       </c>
       <c r="L20">
-        <v>1.043545424765348</v>
+        <v>1.000831282438709</v>
       </c>
       <c r="M20">
-        <v>1.058477396984073</v>
+        <v>1.019346966349821</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.04036231185887</v>
+        <v>0.9670382991302536</v>
       </c>
       <c r="D21">
-        <v>1.045225541507779</v>
+        <v>0.9961589255605823</v>
       </c>
       <c r="E21">
-        <v>1.03876846156886</v>
+        <v>0.9787593215600061</v>
       </c>
       <c r="F21">
-        <v>1.053769908495341</v>
+        <v>0.9976565066456505</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037797244595428</v>
+        <v>1.034599541873621</v>
       </c>
       <c r="J21">
-        <v>1.046916853558079</v>
+        <v>0.9979818362971741</v>
       </c>
       <c r="K21">
-        <v>1.048771680818642</v>
+        <v>1.011213435514507</v>
       </c>
       <c r="L21">
-        <v>1.042338326956779</v>
+        <v>0.994154597162822</v>
       </c>
       <c r="M21">
-        <v>1.057285145581784</v>
+        <v>1.012682413660105</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.039325473021557</v>
+        <v>0.9608596195313513</v>
       </c>
       <c r="D22">
-        <v>1.044448455960253</v>
+        <v>0.9916238548397786</v>
       </c>
       <c r="E22">
-        <v>1.037876170585039</v>
+        <v>0.973688788344735</v>
       </c>
       <c r="F22">
-        <v>1.052889038028634</v>
+        <v>0.9926173424109241</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03756589737264</v>
+        <v>1.032852981377901</v>
       </c>
       <c r="J22">
-        <v>1.046130275707091</v>
+        <v>0.9934193097206724</v>
       </c>
       <c r="K22">
-        <v>1.048125216262427</v>
+        <v>1.007363091267389</v>
       </c>
       <c r="L22">
-        <v>1.04157805300702</v>
+        <v>0.989800137549117</v>
       </c>
       <c r="M22">
-        <v>1.056534044191862</v>
+        <v>1.008336483733265</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.039875234332619</v>
+        <v>0.9641576878849751</v>
       </c>
       <c r="D23">
-        <v>1.044860514453632</v>
+        <v>0.9940435931739883</v>
       </c>
       <c r="E23">
-        <v>1.038349263509604</v>
+        <v>0.976394127893625</v>
       </c>
       <c r="F23">
-        <v>1.053356090881004</v>
+        <v>0.9953058214260797</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037688722250621</v>
+        <v>1.033786183013509</v>
       </c>
       <c r="J23">
-        <v>1.046547403513509</v>
+        <v>0.9958546238529178</v>
       </c>
       <c r="K23">
-        <v>1.048468088860798</v>
+        <v>1.009418406957864</v>
       </c>
       <c r="L23">
-        <v>1.041981215568443</v>
+        <v>0.9921241473607321</v>
       </c>
       <c r="M23">
-        <v>1.056932359452956</v>
+        <v>1.010655865486136</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.042037118195877</v>
+        <v>0.9766609820816169</v>
       </c>
       <c r="D24">
-        <v>1.046480317893179</v>
+        <v>1.003237223021032</v>
       </c>
       <c r="E24">
-        <v>1.040210205125457</v>
+        <v>0.986675510569027</v>
       </c>
       <c r="F24">
-        <v>1.055192937135426</v>
+        <v>1.00552544972326</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038168215632697</v>
+        <v>1.037303490708595</v>
       </c>
       <c r="J24">
-        <v>1.048186342664471</v>
+        <v>1.005088022976874</v>
       </c>
       <c r="K24">
-        <v>1.049814209422129</v>
+        <v>1.017207726895927</v>
       </c>
       <c r="L24">
-        <v>1.043565639814495</v>
+        <v>1.000940730715016</v>
       </c>
       <c r="M24">
-        <v>1.058497360362187</v>
+        <v>1.019456222151703</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.04454098680985</v>
+        <v>0.9902948061665809</v>
       </c>
       <c r="D25">
-        <v>1.048355115852485</v>
+        <v>1.013294803875377</v>
       </c>
       <c r="E25">
-        <v>1.042366626893345</v>
+        <v>0.9979309678780924</v>
       </c>
       <c r="F25">
-        <v>1.057320729181082</v>
+        <v>1.016715994159873</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03871629392121</v>
+        <v>1.041093149041155</v>
       </c>
       <c r="J25">
-        <v>1.050081673801865</v>
+        <v>1.015153262085327</v>
       </c>
       <c r="K25">
-        <v>1.051368703779197</v>
+        <v>1.025690182163329</v>
       </c>
       <c r="L25">
-        <v>1.04539866113666</v>
+        <v>1.01056148804181</v>
       </c>
       <c r="M25">
-        <v>1.060307126169891</v>
+        <v>1.029060241776433</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
